--- a/Org/Sprint_Review_Protocol3.xlsx
+++ b/Org/Sprint_Review_Protocol3.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>Sprint Review Protocol</t>
   </si>
@@ -127,10 +127,19 @@
     <t>GitHub Problem wegen pushen lösen</t>
   </si>
   <si>
-    <t>Basics Handtracking: draft Implementierung für Tests</t>
-  </si>
-  <si>
-    <t>AM besten für Sprints die Requirements aufsplitten</t>
+    <t>Verbindungsproblem mit Meta Link lösen</t>
+  </si>
+  <si>
+    <t>Summe</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Basics Handtracking: draft Implementierung</t>
+  </si>
+  <si>
+    <t>minimale Anpassungen im nächsten Sprint</t>
   </si>
 </sst>
 </file>
@@ -356,12 +365,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -371,24 +378,60 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -398,43 +441,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -749,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -767,169 +773,169 @@
     <col min="9" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-    </row>
-    <row r="3" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26">
+      <c r="B4" s="16"/>
+      <c r="C4" s="19">
         <v>3</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="28">
+      <c r="B5" s="18"/>
+      <c r="C5" s="21">
         <v>41948</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="29">
+      <c r="B6" s="18"/>
+      <c r="C6" s="22">
         <v>16</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="22" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -955,203 +961,238 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>1</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="5">
         <v>15</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="9">
+      <c r="D16" s="5">
+        <v>15</v>
+      </c>
+      <c r="E16" s="7">
         <f>D16-C16</f>
-        <v>-15</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="7"/>
-      <c r="K16" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="6">
         <v>2</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="7">
-        <v>20</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="9">
+      <c r="C17" s="5">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5">
+        <v>10</v>
+      </c>
+      <c r="E17" s="7">
         <f t="shared" ref="E17:E25" si="0">D17-C17</f>
-        <v>-20</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="6">
         <v>3</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="7">
-        <v>20</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="9">
+      <c r="C18" s="5">
+        <v>15</v>
+      </c>
+      <c r="D18" s="5">
+        <v>17</v>
+      </c>
+      <c r="E18" s="7">
         <f t="shared" si="0"/>
-        <v>-20</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="6">
         <v>4</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="5">
+        <v>15</v>
+      </c>
+      <c r="D19" s="5">
+        <v>11</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>5</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5">
+        <v>5</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>6</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="7">
-        <v>20</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="9">
+      <c r="C21" s="5">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5">
+        <v>7</v>
+      </c>
+      <c r="E21" s="7">
         <f t="shared" si="0"/>
-        <v>-20</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
         <v>5</v>
       </c>
-      <c r="B20" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="9">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>6</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="9">
+      <c r="F21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>7</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>7</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="9">
+      <c r="F22" s="9"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="F23" s="9"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="9">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="9">
+      <c r="F24" s="9"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="7"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="4">
         <f>COUNT(A16:A25)</f>
         <v>7</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6">
+      <c r="B26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="4">
+        <f>SUM(C16:C21)</f>
+        <v>59</v>
+      </c>
+      <c r="D26" s="4">
+        <f>SUM(D16:D21)</f>
+        <v>65</v>
+      </c>
+      <c r="E26" s="4">
         <f>SUM(E16:E25)</f>
-        <v>-77</v>
-      </c>
-      <c r="F26" s="6">
+        <v>6</v>
+      </c>
+      <c r="F26" s="4">
         <f>COUNT(F16:F25)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="4">
         <f>COUNT(G16:G25)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="6"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="2" t="s">
         <v>18</v>
       </c>
@@ -1163,6 +1204,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="C11:G11"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
@@ -1177,12 +1224,6 @@
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="C11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Org/Sprint_Review_Protocol3.xlsx
+++ b/Org/Sprint_Review_Protocol3.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\OneDrive\Studium\FHTechnikumWien\3. Semester\9_InnovationLab\LocalRep\Org\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AE1A65-14E5-4660-A1EE-A3D3207A6010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9960"/>
+    <workbookView xWindow="2160" yWindow="1785" windowWidth="16305" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,6 +26,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -145,7 +149,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -365,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -377,40 +381,54 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -425,21 +443,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -754,11 +757,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -774,28 +777,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3"/>
@@ -809,131 +812,131 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="19">
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>3</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="21">
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>41948</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="22">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>16</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="24" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -974,14 +977,14 @@
       <c r="D16" s="5">
         <v>15</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="2">
         <f>D16-C16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="8"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -997,14 +1000,14 @@
       <c r="D17" s="5">
         <v>10</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="2">
         <f t="shared" ref="E17:E25" si="0">D17-C17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="8"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="5" t="s">
         <v>35</v>
       </c>
@@ -1022,14 +1025,14 @@
       <c r="D18" s="5">
         <v>17</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="8"/>
+      <c r="G18" s="7"/>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1045,14 +1048,14 @@
       <c r="D19" s="5">
         <v>11</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="2">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="8"/>
+      <c r="G19" s="7"/>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1068,14 +1071,14 @@
       <c r="D20" s="5">
         <v>5</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="8"/>
+      <c r="G20" s="7"/>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1091,14 +1094,14 @@
       <c r="D21" s="5">
         <v>7</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="8"/>
+      <c r="G21" s="7"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1108,12 +1111,12 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="7">
+      <c r="E22" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="7"/>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1123,12 +1126,12 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="7">
+      <c r="E23" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="7"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1138,12 +1141,12 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="7">
+      <c r="E24" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="7"/>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1153,12 +1156,12 @@
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="7">
+      <c r="E25" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="7"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1204,12 +1207,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="C11:G11"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
@@ -1224,6 +1221,12 @@
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="C11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
